--- a/auxiliary_data/Citable_documents_per_country.xlsx
+++ b/auxiliary_data/Citable_documents_per_country.xlsx
@@ -1,37 +1,780 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meurerst\git\anonymization-review\auxiliary_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28928F3-797D-46C4-B2C5-83AE5D3C343B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14724" windowHeight="4428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Citable_documents_per_country" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Citable_documents_per_country" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+  <si>
+    <t>Name (Country)</t>
+  </si>
+  <si>
+    <t>Citable documents_2018</t>
+  </si>
+  <si>
+    <t>Citable documents_2019</t>
+  </si>
+  <si>
+    <t>Citable documents_2020</t>
+  </si>
+  <si>
+    <t>Citable documents_2021</t>
+  </si>
+  <si>
+    <t>Citable documents_2022</t>
+  </si>
+  <si>
+    <t>Citable documents_total</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Curaçao</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Côte d’Ivoire</t>
+  </si>
+  <si>
+    <t>Democratic Republic Congo</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Federated States of Micronesia</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>French Southern Territories</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haïti</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Republic of South Sudan</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Martin (Dutch)</t>
+  </si>
+  <si>
+    <t>Saint Martin (French)</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>United States Minor Outlying Islands</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Vatican City State</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Virgin Islands (British)</t>
+  </si>
+  <si>
+    <t>Virgin Islands (U.S.)</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +789,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,5866 +1113,5318 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G238"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Name (Country)</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Citable documents_2018</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Citable documents_2019</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Citable documents_2020</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Citable documents_2021</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Citable documents_2022</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Citable documents_total</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Afghanistan</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
         <v>88</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>97</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>111</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>209</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>251</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>756</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Albania</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
         <v>133</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>159</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>189</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>235</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>271</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>987</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Algeria</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
         <v>627</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>528</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>647</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>933</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>928</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>3663</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>American Samoa</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
         <v>11</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>5</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>7</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>31</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Andorra</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
         <v>7</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>14</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>20</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>19</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>72</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Angola</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
         <v>54</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>49</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>57</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>69</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>83</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>312</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Anguilla</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>12</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>8</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>10</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>44</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Antigua and Barbuda</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
         <v>18</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>15</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>18</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>24</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>83</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
         <v>3842</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>3796</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>4328</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>4716</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>4350</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>21032</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Armenia</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
         <v>143</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>220</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>210</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>274</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>320</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>1167</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Aruba</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>6</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>16</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>20</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>26</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>72</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
         <v>31358</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>32869</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>34814</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>39179</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>40359</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>178579</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
         <v>7187</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>7637</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>8739</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>9817</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>9687</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>43067</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Azerbaijan</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
         <v>201</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>245</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>287</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>253</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>257</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>1243</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Bahamas</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>21</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>19</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>27</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>28</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>109</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Bahrain</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
         <v>216</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>322</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>340</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>471</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>441</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>1790</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Bangladesh</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
         <v>1126</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>1633</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>2492</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>2903</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>3328</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>11482</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Barbados</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
         <v>50</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>46</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>65</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>87</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>109</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>357</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Belarus</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
         <v>379</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>536</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>568</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>719</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>651</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>2853</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
         <v>11116</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>10979</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>12500</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>14145</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>13745</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>62485</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Belize</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
         <v>8</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>14</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>16</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>35</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>28</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>101</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Benin</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
         <v>186</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>179</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>220</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>260</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>241</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>1086</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Bermuda</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
         <v>13</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>29</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>13</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>24</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>27</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>106</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Bhutan</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
         <v>37</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>48</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>67</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>99</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>96</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>347</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Bolivia</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
         <v>109</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>136</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>165</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>197</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>184</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>791</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Bosnia and Herzegovina</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
         <v>449</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>489</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>512</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>706</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>610</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>2766</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Botswana</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
         <v>217</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>202</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>225</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>293</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>288</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>1225</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
         <v>22926</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>23054</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>26640</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>29362</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>27792</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>129774</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>British Indian Ocean Territory</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="n">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30">
         <v>2</v>
       </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>2</v>
       </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>4</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Brunei Darussalam</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
         <v>69</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>79</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>117</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>164</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>229</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>658</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
         <v>1082</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>1172</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>1432</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>1467</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>1449</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>6602</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Burkina Faso</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
         <v>297</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>317</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>300</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>440</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>446</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>1800</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Burundi</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
         <v>36</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>26</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>50</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>44</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>41</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>197</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Cambodia</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
         <v>213</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>225</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>225</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>233</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>266</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>1162</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Cameroon</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
         <v>658</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>643</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>728</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>828</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>802</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>3659</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
         <v>35260</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>36701</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>38650</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>43480</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>43756</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>197847</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Cape Verde</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
         <v>7</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>14</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>15</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>18</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>23</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>77</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Cayman Islands</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
         <v>14</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>7</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>11</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>16</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>12</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>60</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Central African Republic</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
         <v>32</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>31</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>38</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>31</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>41</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>173</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Chad</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
         <v>25</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>22</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>27</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>45</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>37</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>156</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Chile</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
         <v>3485</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>3626</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>4269</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>5054</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>4684</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>21118</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>China</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
         <v>113516</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>132454</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>162603</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>187116</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>228595</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>824284</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
         <v>3320</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>3534</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>4264</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>5043</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>5014</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>21175</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Comoros</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
         <v>5</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>11</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>6</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>8</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>7</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>37</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Congo</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
         <v>281</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>251</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>234</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>250</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>245</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>1261</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Cook Islands</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
         <v>2</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>2</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>1</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>2</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>3</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>10</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
         <v>299</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>280</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>353</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>421</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>411</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>1764</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
         <v>2017</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>2036</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>2249</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>2705</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>2704</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>11711</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Cuba</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
         <v>755</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>795</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>968</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>1034</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>827</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>4379</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Curaçao</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="n">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51">
         <v>7</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>21</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>20</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>36</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>84</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Cyprus</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
         <v>636</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>848</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>1009</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>1267</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>1319</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>5079</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
         <v>5188</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>5294</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>5652</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>6264</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>5879</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>28277</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Côte d’Ivoire</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
         <v>226</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>233</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>240</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>313</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>249</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>1261</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Democratic Republic Congo</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
         <v>86</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>143</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>260</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>345</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>366</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>1200</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
         <v>10129</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>10349</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>11432</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>12779</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>12700</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>57389</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Djibouti</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
         <v>7</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>6</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>6</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>16</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>9</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>44</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Dominica</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
         <v>23</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>17</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>9</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>13</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>16</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>78</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Dominican Republic</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
         <v>85</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>119</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>160</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>209</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>202</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>775</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
         <v>786</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>960</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>1094</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>1275</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>1223</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>5338</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Egypt</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
         <v>6436</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>7129</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>9132</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>11580</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>12986</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>47263</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>El Salvador</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
         <v>48</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>42</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>54</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>75</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>79</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>298</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Equatorial Guinea</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
         <v>16</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>6</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>10</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>13</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>13</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>58</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Eritrea</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
         <v>24</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>20</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>28</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>48</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>34</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>154</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Estonia</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
         <v>544</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>629</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>615</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>765</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>705</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>3258</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Ethiopia</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
         <v>1549</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>2009</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>2926</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>3604</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>4131</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>14219</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Falkland Islands (Malvinas)</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
         <v>4</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>5</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>1</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>5</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>1</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>16</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Faroe Islands</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
         <v>38</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>42</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>24</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>35</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>54</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>193</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Federated States of Micronesia</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
         <v>6</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>4</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>18</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>12</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>9</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>49</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Fiji</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70">
         <v>72</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>90</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>89</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>121</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>123</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>495</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Finland</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
         <v>4975</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>5409</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>5641</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>6459</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>6561</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>29045</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
         <v>32118</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>31635</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>34180</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>36798</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>35708</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>170439</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>French Guiana</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73">
         <v>46</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>50</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>66</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>70</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>56</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>288</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>French Polynesia</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74">
         <v>42</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>39</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>34</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>38</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>32</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>185</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>French Southern Territories</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="n">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75">
         <v>1</v>
       </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>1</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Gabon</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
         <v>82</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>98</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>95</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>147</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>167</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>589</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Gambia</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
         <v>109</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>122</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>175</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>195</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>203</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>804</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
         <v>565</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>772</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>698</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>705</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>799</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>3539</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
         <v>47530</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>48378</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>51578</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>58318</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>57079</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>262883</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
         <v>1006</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>1179</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>1415</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>1785</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>2020</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>7405</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Gibraltar</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
         <v>2</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>1</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>4</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>22</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>43</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>72</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
         <v>5726</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>6154</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>6824</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>8197</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>8143</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>35044</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Greenland</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
         <v>41</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>48</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>32</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>41</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>50</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>212</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Grenada</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
         <v>171</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>167</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>191</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>214</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>207</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>950</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Guadeloupe</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
         <v>27</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>28</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>28</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>27</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>37</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>147</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Guam</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
         <v>8</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>14</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>31</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>16</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>17</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>86</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Guatemala</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
         <v>140</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>153</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>215</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>261</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>243</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>1012</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Guinea</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
         <v>62</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>90</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>93</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>114</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>105</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>464</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Guinea-Bissau</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89">
         <v>33</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>45</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>47</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>49</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>42</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>216</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Guyana</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90">
         <v>26</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>18</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>26</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>31</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>29</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>130</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Haïti</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91">
         <v>79</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>88</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>92</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>93</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>102</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>454</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Honduras</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92">
         <v>73</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>82</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>98</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>117</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>123</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>493</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93">
         <v>4597</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>4936</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>5485</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>6635</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>7380</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>29033</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94">
         <v>2864</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>3068</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>3285</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>3837</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>3939</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>16993</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Iceland</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95">
         <v>488</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>552</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>547</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>629</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>662</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>2878</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96">
         <v>32111</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>32652</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>37058</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>45732</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>52241</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>199794</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Indonesia</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97">
         <v>3160</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>4883</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>5389</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>6896</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>7269</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>27597</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Iran</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98">
         <v>16100</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>17685</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>20308</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>22820</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>23784</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>100697</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Iraq</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99">
         <v>1240</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>2818</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>3129</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>2327</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>2859</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>12373</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Ireland</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100">
         <v>4871</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>5068</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>5794</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>7142</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>7026</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>29901</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Israel</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101">
         <v>6403</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>6653</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>7399</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>8760</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>8911</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>38126</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102">
         <v>35731</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>37575</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>46060</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>51109</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>49655</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>220130</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Jamaica</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103">
         <v>178</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>158</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>219</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>274</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103">
         <v>210</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G103">
         <v>1039</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104">
         <v>40546</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>40445</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>43245</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>49434</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104">
         <v>48007</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G104">
         <v>221677</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Jordan</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105">
         <v>1003</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>1173</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>1582</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>2195</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105">
         <v>2397</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G105">
         <v>8350</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Kazakhstan</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106">
         <v>408</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>569</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>597</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>767</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106">
         <v>936</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G106">
         <v>3277</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Kenya</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107">
         <v>1419</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>1454</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>1756</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107">
         <v>1988</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107">
         <v>2041</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G107">
         <v>8658</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Kiribati</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="n">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>113</v>
+      </c>
+      <c r="C108">
         <v>8</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>8</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>3</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108">
         <v>6</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G108">
         <v>25</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Kuwait</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109">
         <v>456</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>529</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>619</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109">
         <v>812</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F109">
         <v>804</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G109">
         <v>3220</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Kyrgyzstan</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110">
         <v>85</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>110</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>160</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110">
         <v>182</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F110">
         <v>176</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G110">
         <v>713</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Laos</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111">
         <v>113</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>144</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>147</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111">
         <v>146</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111">
         <v>128</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G111">
         <v>678</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Latvia</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112">
         <v>287</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>365</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>429</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112">
         <v>564</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F112">
         <v>519</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G112">
         <v>2164</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Lebanon</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113">
         <v>1310</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>1418</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>1838</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113">
         <v>1920</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113">
         <v>1963</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G113">
         <v>8449</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Lesotho</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114">
         <v>21</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>26</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>42</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>43</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F114">
         <v>69</v>
       </c>
-      <c r="G114" t="n">
+      <c r="G114">
         <v>201</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Liberia</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115">
         <v>55</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>76</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>56</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115">
         <v>101</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115">
         <v>221</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G115">
         <v>509</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Libya</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116">
         <v>112</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>98</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>127</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116">
         <v>194</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F116">
         <v>188</v>
       </c>
-      <c r="G116" t="n">
+      <c r="G116">
         <v>719</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Liechtenstein</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117">
         <v>17</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>29</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>30</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>41</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F117">
         <v>43</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G117">
         <v>160</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Lithuania</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118">
         <v>795</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>853</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>1043</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118">
         <v>1311</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F118">
         <v>1291</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G118">
         <v>5293</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Luxembourg</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119">
         <v>444</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>490</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>554</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119">
         <v>678</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F119">
         <v>673</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G119">
         <v>2839</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Macao</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120">
         <v>508</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>476</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>518</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120">
         <v>688</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F120">
         <v>989</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G120">
         <v>3179</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Macedonia</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121">
         <v>282</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>263</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>282</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121">
         <v>319</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121">
         <v>328</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G121">
         <v>1474</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Madagascar</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>127</v>
+      </c>
+      <c r="B122">
         <v>115</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>124</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>128</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122">
         <v>179</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F122">
         <v>151</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G122">
         <v>697</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Malawi</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123">
         <v>493</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>507</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>609</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123">
         <v>719</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F123">
         <v>698</v>
       </c>
-      <c r="G123" t="n">
+      <c r="G123">
         <v>3026</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Malaysia</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>129</v>
+      </c>
+      <c r="B124">
         <v>4903</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>5277</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>6057</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124">
         <v>7681</v>
       </c>
-      <c r="F124" t="n">
+      <c r="F124">
         <v>8268</v>
       </c>
-      <c r="G124" t="n">
+      <c r="G124">
         <v>32186</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Maldives</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>130</v>
+      </c>
+      <c r="B125">
         <v>14</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>9</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>24</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125">
         <v>29</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F125">
         <v>37</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G125">
         <v>113</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Mali</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>131</v>
+      </c>
+      <c r="B126">
         <v>151</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>157</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>171</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E126">
         <v>220</v>
       </c>
-      <c r="F126" t="n">
+      <c r="F126">
         <v>221</v>
       </c>
-      <c r="G126" t="n">
+      <c r="G126">
         <v>920</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Malta</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127">
         <v>287</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>285</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>343</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E127">
         <v>395</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F127">
         <v>450</v>
       </c>
-      <c r="G127" t="n">
+      <c r="G127">
         <v>1760</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Marshall Islands</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>133</v>
+      </c>
+      <c r="B128">
         <v>6</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>2</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>1</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128">
         <v>4</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F128">
         <v>7</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G128">
         <v>20</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Martinique</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>134</v>
+      </c>
+      <c r="B129">
         <v>28</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>36</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>39</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E129">
         <v>34</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F129">
         <v>41</v>
       </c>
-      <c r="G129" t="n">
+      <c r="G129">
         <v>178</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Mauritania</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130">
         <v>25</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>32</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>27</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E130">
         <v>34</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F130">
         <v>25</v>
       </c>
-      <c r="G130" t="n">
+      <c r="G130">
         <v>143</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Mauritius</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131">
         <v>53</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>55</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>71</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E131">
         <v>107</v>
       </c>
-      <c r="F131" t="n">
+      <c r="F131">
         <v>106</v>
       </c>
-      <c r="G131" t="n">
+      <c r="G131">
         <v>392</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Mayotte</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>137</v>
+      </c>
+      <c r="B132">
         <v>2</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>3</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>4</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E132">
         <v>3</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F132">
         <v>4</v>
       </c>
-      <c r="G132" t="n">
+      <c r="G132">
         <v>16</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>138</v>
+      </c>
+      <c r="B133">
         <v>6091</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>6647</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>8028</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E133">
         <v>9013</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F133">
         <v>8295</v>
       </c>
-      <c r="G133" t="n">
+      <c r="G133">
         <v>38074</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Moldova</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>139</v>
+      </c>
+      <c r="B134">
         <v>87</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>131</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>134</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E134">
         <v>161</v>
       </c>
-      <c r="F134" t="n">
+      <c r="F134">
         <v>146</v>
       </c>
-      <c r="G134" t="n">
+      <c r="G134">
         <v>659</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Monaco</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>140</v>
+      </c>
+      <c r="B135">
         <v>78</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>90</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>97</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E135">
         <v>124</v>
       </c>
-      <c r="F135" t="n">
+      <c r="F135">
         <v>111</v>
       </c>
-      <c r="G135" t="n">
+      <c r="G135">
         <v>500</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Mongolia</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>141</v>
+      </c>
+      <c r="B136">
         <v>102</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>147</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>153</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E136">
         <v>176</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F136">
         <v>191</v>
       </c>
-      <c r="G136" t="n">
+      <c r="G136">
         <v>769</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Montenegro</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>142</v>
+      </c>
+      <c r="B137">
         <v>124</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>149</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>124</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E137">
         <v>158</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F137">
         <v>124</v>
       </c>
-      <c r="G137" t="n">
+      <c r="G137">
         <v>679</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Montserrat</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>143</v>
+      </c>
+      <c r="B138">
         <v>2</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>0</v>
       </c>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="n">
+      <c r="F138">
         <v>2</v>
       </c>
-      <c r="G138" t="n">
+      <c r="G138">
         <v>4</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Morocco</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>144</v>
+      </c>
+      <c r="B139">
         <v>1047</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>1050</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>1557</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E139">
         <v>1967</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F139">
         <v>2128</v>
       </c>
-      <c r="G139" t="n">
+      <c r="G139">
         <v>7749</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Mozambique</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>145</v>
+      </c>
+      <c r="B140">
         <v>229</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>248</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>296</v>
       </c>
-      <c r="E140" t="n">
+      <c r="E140">
         <v>388</v>
       </c>
-      <c r="F140" t="n">
+      <c r="F140">
         <v>341</v>
       </c>
-      <c r="G140" t="n">
+      <c r="G140">
         <v>1502</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Myanmar</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>146</v>
+      </c>
+      <c r="B141">
         <v>171</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>202</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>298</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E141">
         <v>287</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F141">
         <v>211</v>
       </c>
-      <c r="G141" t="n">
+      <c r="G141">
         <v>1169</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Namibia</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>147</v>
+      </c>
+      <c r="B142">
         <v>77</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>98</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>130</v>
       </c>
-      <c r="E142" t="n">
+      <c r="E142">
         <v>159</v>
       </c>
-      <c r="F142" t="n">
+      <c r="F142">
         <v>190</v>
       </c>
-      <c r="G142" t="n">
+      <c r="G142">
         <v>654</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Nauru</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr"/>
-      <c r="C143" t="n">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>148</v>
+      </c>
+      <c r="C143">
         <v>1</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>3</v>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="n">
+      <c r="F143">
         <v>2</v>
       </c>
-      <c r="G143" t="n">
+      <c r="G143">
         <v>6</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Nepal</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144">
         <v>858</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>997</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>1512</v>
       </c>
-      <c r="E144" t="n">
+      <c r="E144">
         <v>1765</v>
       </c>
-      <c r="F144" t="n">
+      <c r="F144">
         <v>1822</v>
       </c>
-      <c r="G144" t="n">
+      <c r="G144">
         <v>6954</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>150</v>
+      </c>
+      <c r="B145">
         <v>22763</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>23024</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>25055</v>
       </c>
-      <c r="E145" t="n">
+      <c r="E145">
         <v>27764</v>
       </c>
-      <c r="F145" t="n">
+      <c r="F145">
         <v>27220</v>
       </c>
-      <c r="G145" t="n">
+      <c r="G145">
         <v>125826</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Netherlands Antilles</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146">
         <v>2</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>4</v>
       </c>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="n">
+      <c r="G146">
         <v>6</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>New Caledonia</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147">
         <v>42</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>50</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>44</v>
       </c>
-      <c r="E147" t="n">
+      <c r="E147">
         <v>38</v>
       </c>
-      <c r="F147" t="n">
+      <c r="F147">
         <v>52</v>
       </c>
-      <c r="G147" t="n">
+      <c r="G147">
         <v>226</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>New Zealand</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>153</v>
+      </c>
+      <c r="B148">
         <v>4569</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>4824</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>5330</v>
       </c>
-      <c r="E148" t="n">
+      <c r="E148">
         <v>5583</v>
       </c>
-      <c r="F148" t="n">
+      <c r="F148">
         <v>5784</v>
       </c>
-      <c r="G148" t="n">
+      <c r="G148">
         <v>26090</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Nicaragua</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>154</v>
+      </c>
+      <c r="B149">
         <v>66</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>67</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>72</v>
       </c>
-      <c r="E149" t="n">
+      <c r="E149">
         <v>76</v>
       </c>
-      <c r="F149" t="n">
+      <c r="F149">
         <v>84</v>
       </c>
-      <c r="G149" t="n">
+      <c r="G149">
         <v>365</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Niger</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>155</v>
+      </c>
+      <c r="B150">
         <v>70</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>88</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>91</v>
       </c>
-      <c r="E150" t="n">
+      <c r="E150">
         <v>94</v>
       </c>
-      <c r="F150" t="n">
+      <c r="F150">
         <v>94</v>
       </c>
-      <c r="G150" t="n">
+      <c r="G150">
         <v>437</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>156</v>
+      </c>
+      <c r="B151">
         <v>2763</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>2865</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>3957</v>
       </c>
-      <c r="E151" t="n">
+      <c r="E151">
         <v>4435</v>
       </c>
-      <c r="F151" t="n">
+      <c r="F151">
         <v>4468</v>
       </c>
-      <c r="G151" t="n">
+      <c r="G151">
         <v>18488</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Niue</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr"/>
-      <c r="C152" t="n">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>157</v>
+      </c>
+      <c r="C152">
         <v>1</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>0</v>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="n">
+      <c r="G152">
         <v>1</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Norfolk Island</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr"/>
-      <c r="C153" t="inlineStr"/>
-      <c r="D153" t="n">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>158</v>
+      </c>
+      <c r="D153">
         <v>0</v>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="n">
+      <c r="G153">
         <v>0</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>North Korea</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>159</v>
+      </c>
+      <c r="B154">
         <v>11</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>17</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>28</v>
       </c>
-      <c r="E154" t="n">
+      <c r="E154">
         <v>30</v>
       </c>
-      <c r="F154" t="n">
+      <c r="F154">
         <v>35</v>
       </c>
-      <c r="G154" t="n">
+      <c r="G154">
         <v>121</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Northern Mariana Islands</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>160</v>
+      </c>
+      <c r="B155">
         <v>3</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>2</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>6</v>
       </c>
-      <c r="E155" t="n">
+      <c r="E155">
         <v>8</v>
       </c>
-      <c r="F155" t="n">
+      <c r="F155">
         <v>6</v>
       </c>
-      <c r="G155" t="n">
+      <c r="G155">
         <v>25</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>161</v>
+      </c>
+      <c r="B156">
         <v>6746</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>6947</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>7370</v>
       </c>
-      <c r="E156" t="n">
+      <c r="E156">
         <v>8503</v>
       </c>
-      <c r="F156" t="n">
+      <c r="F156">
         <v>8763</v>
       </c>
-      <c r="G156" t="n">
+      <c r="G156">
         <v>38329</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Oman</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>162</v>
+      </c>
+      <c r="B157">
         <v>409</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>489</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>595</v>
       </c>
-      <c r="E157" t="n">
+      <c r="E157">
         <v>848</v>
       </c>
-      <c r="F157" t="n">
+      <c r="F157">
         <v>986</v>
       </c>
-      <c r="G157" t="n">
+      <c r="G157">
         <v>3327</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>163</v>
+      </c>
+      <c r="B158">
         <v>5047</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>5513</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>7094</v>
       </c>
-      <c r="E158" t="n">
+      <c r="E158">
         <v>8980</v>
       </c>
-      <c r="F158" t="n">
+      <c r="F158">
         <v>10142</v>
       </c>
-      <c r="G158" t="n">
+      <c r="G158">
         <v>36776</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Palau</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>164</v>
+      </c>
+      <c r="B159">
         <v>3</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>2</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>3</v>
       </c>
-      <c r="E159" t="n">
+      <c r="E159">
         <v>6</v>
       </c>
-      <c r="F159" t="n">
+      <c r="F159">
         <v>9</v>
       </c>
-      <c r="G159" t="n">
+      <c r="G159">
         <v>23</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Palestine</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>165</v>
+      </c>
+      <c r="B160">
         <v>210</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>215</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>348</v>
       </c>
-      <c r="E160" t="n">
+      <c r="E160">
         <v>471</v>
       </c>
-      <c r="F160" t="n">
+      <c r="F160">
         <v>515</v>
       </c>
-      <c r="G160" t="n">
+      <c r="G160">
         <v>1759</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Panama</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>166</v>
+      </c>
+      <c r="B161">
         <v>145</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>190</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>208</v>
       </c>
-      <c r="E161" t="n">
+      <c r="E161">
         <v>276</v>
       </c>
-      <c r="F161" t="n">
+      <c r="F161">
         <v>304</v>
       </c>
-      <c r="G161" t="n">
+      <c r="G161">
         <v>1123</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Papua New Guinea</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>167</v>
+      </c>
+      <c r="B162">
         <v>70</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>87</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>84</v>
       </c>
-      <c r="E162" t="n">
+      <c r="E162">
         <v>102</v>
       </c>
-      <c r="F162" t="n">
+      <c r="F162">
         <v>104</v>
       </c>
-      <c r="G162" t="n">
+      <c r="G162">
         <v>447</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Paraguay</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163">
         <v>95</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>150</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>199</v>
       </c>
-      <c r="E163" t="n">
+      <c r="E163">
         <v>193</v>
       </c>
-      <c r="F163" t="n">
+      <c r="F163">
         <v>213</v>
       </c>
-      <c r="G163" t="n">
+      <c r="G163">
         <v>850</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Peru</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>169</v>
+      </c>
+      <c r="B164">
         <v>998</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>1175</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>1593</v>
       </c>
-      <c r="E164" t="n">
+      <c r="E164">
         <v>2120</v>
       </c>
-      <c r="F164" t="n">
+      <c r="F164">
         <v>2332</v>
       </c>
-      <c r="G164" t="n">
+      <c r="G164">
         <v>8218</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Philippines</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>170</v>
+      </c>
+      <c r="B165">
         <v>801</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>948</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>1227</v>
       </c>
-      <c r="E165" t="n">
+      <c r="E165">
         <v>1583</v>
       </c>
-      <c r="F165" t="n">
+      <c r="F165">
         <v>1800</v>
       </c>
-      <c r="G165" t="n">
+      <c r="G165">
         <v>6359</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>171</v>
+      </c>
+      <c r="B166">
         <v>11288</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>11984</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>13385</v>
       </c>
-      <c r="E166" t="n">
+      <c r="E166">
         <v>16340</v>
       </c>
-      <c r="F166" t="n">
+      <c r="F166">
         <v>15942</v>
       </c>
-      <c r="G166" t="n">
+      <c r="G166">
         <v>68939</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>172</v>
+      </c>
+      <c r="B167">
         <v>6337</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>6829</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>7807</v>
       </c>
-      <c r="E167" t="n">
+      <c r="E167">
         <v>9240</v>
       </c>
-      <c r="F167" t="n">
+      <c r="F167">
         <v>9669</v>
       </c>
-      <c r="G167" t="n">
+      <c r="G167">
         <v>39882</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Puerto Rico</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>173</v>
+      </c>
+      <c r="B168">
         <v>318</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>282</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>347</v>
       </c>
-      <c r="E168" t="n">
+      <c r="E168">
         <v>414</v>
       </c>
-      <c r="F168" t="n">
+      <c r="F168">
         <v>523</v>
       </c>
-      <c r="G168" t="n">
+      <c r="G168">
         <v>1884</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Qatar</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>174</v>
+      </c>
+      <c r="B169">
         <v>1028</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>1238</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>1610</v>
       </c>
-      <c r="E169" t="n">
+      <c r="E169">
         <v>2103</v>
       </c>
-      <c r="F169" t="n">
+      <c r="F169">
         <v>2052</v>
       </c>
-      <c r="G169" t="n">
+      <c r="G169">
         <v>8031</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Republic of South Sudan</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>175</v>
+      </c>
+      <c r="B170">
         <v>13</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>6</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>21</v>
       </c>
-      <c r="E170" t="n">
+      <c r="E170">
         <v>40</v>
       </c>
-      <c r="F170" t="n">
+      <c r="F170">
         <v>62</v>
       </c>
-      <c r="G170" t="n">
+      <c r="G170">
         <v>142</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Reunion</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>176</v>
+      </c>
+      <c r="B171">
         <v>27</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>24</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>27</v>
       </c>
-      <c r="E171" t="n">
+      <c r="E171">
         <v>33</v>
       </c>
-      <c r="F171" t="n">
+      <c r="F171">
         <v>49</v>
       </c>
-      <c r="G171" t="n">
+      <c r="G171">
         <v>160</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>177</v>
+      </c>
+      <c r="B172">
         <v>3213</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>3760</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>3747</v>
       </c>
-      <c r="E172" t="n">
+      <c r="E172">
         <v>4096</v>
       </c>
-      <c r="F172" t="n">
+      <c r="F172">
         <v>4610</v>
       </c>
-      <c r="G172" t="n">
+      <c r="G172">
         <v>19426</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>Russian Federation</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>243</v>
+      </c>
+      <c r="B173">
         <v>13711</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>16862</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>19525</v>
       </c>
-      <c r="E173" t="n">
+      <c r="E173">
         <v>21812</v>
       </c>
-      <c r="F173" t="n">
+      <c r="F173">
         <v>20902</v>
       </c>
-      <c r="G173" t="n">
+      <c r="G173">
         <v>92812</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>Rwanda</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174">
         <v>232</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>263</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>331</v>
       </c>
-      <c r="E174" t="n">
+      <c r="E174">
         <v>402</v>
       </c>
-      <c r="F174" t="n">
+      <c r="F174">
         <v>408</v>
       </c>
-      <c r="G174" t="n">
+      <c r="G174">
         <v>1636</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Saint Helena</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>179</v>
+      </c>
+      <c r="B175">
         <v>1</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>1</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>1</v>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="n">
+      <c r="G175">
         <v>3</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Saint Kitts and Nevis</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>180</v>
+      </c>
+      <c r="B176">
         <v>53</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>64</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>76</v>
       </c>
-      <c r="E176" t="n">
+      <c r="E176">
         <v>79</v>
       </c>
-      <c r="F176" t="n">
+      <c r="F176">
         <v>80</v>
       </c>
-      <c r="G176" t="n">
+      <c r="G176">
         <v>352</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Saint Lucia</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>181</v>
+      </c>
+      <c r="B177">
         <v>11</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>8</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>8</v>
       </c>
-      <c r="E177" t="n">
+      <c r="E177">
         <v>10</v>
       </c>
-      <c r="F177" t="n">
+      <c r="F177">
         <v>8</v>
       </c>
-      <c r="G177" t="n">
+      <c r="G177">
         <v>45</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Saint Martin (Dutch)</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr"/>
-      <c r="C178" t="inlineStr"/>
-      <c r="D178" t="inlineStr"/>
-      <c r="E178" t="n">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>182</v>
+      </c>
+      <c r="E178">
         <v>5</v>
       </c>
-      <c r="F178" t="n">
+      <c r="F178">
         <v>12</v>
       </c>
-      <c r="G178" t="n">
+      <c r="G178">
         <v>17</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Saint Martin (French)</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr"/>
-      <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr"/>
-      <c r="E179" t="n">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>183</v>
+      </c>
+      <c r="E179">
         <v>3</v>
       </c>
-      <c r="F179" t="n">
+      <c r="F179">
         <v>2</v>
       </c>
-      <c r="G179" t="n">
+      <c r="G179">
         <v>5</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Saint Pierre and Miquelon</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr"/>
-      <c r="C180" t="inlineStr"/>
-      <c r="D180" t="n">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>184</v>
+      </c>
+      <c r="D180">
         <v>1</v>
       </c>
-      <c r="E180" t="n">
+      <c r="E180">
         <v>2</v>
       </c>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="n">
+      <c r="G180">
         <v>3</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Saint Vincent and the Grenadines</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>185</v>
+      </c>
+      <c r="B181">
         <v>3</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>10</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>18</v>
       </c>
-      <c r="E181" t="n">
+      <c r="E181">
         <v>35</v>
       </c>
-      <c r="F181" t="n">
+      <c r="F181">
         <v>21</v>
       </c>
-      <c r="G181" t="n">
+      <c r="G181">
         <v>87</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Samoa</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>186</v>
+      </c>
+      <c r="B182">
         <v>12</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>15</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>31</v>
       </c>
-      <c r="E182" t="n">
+      <c r="E182">
         <v>41</v>
       </c>
-      <c r="F182" t="n">
+      <c r="F182">
         <v>33</v>
       </c>
-      <c r="G182" t="n">
+      <c r="G182">
         <v>132</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>San Marino</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>187</v>
+      </c>
+      <c r="B183">
         <v>16</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>12</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>19</v>
       </c>
-      <c r="E183" t="n">
+      <c r="E183">
         <v>33</v>
       </c>
-      <c r="F183" t="n">
+      <c r="F183">
         <v>31</v>
       </c>
-      <c r="G183" t="n">
+      <c r="G183">
         <v>111</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Sao Tome and Principe</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr"/>
-      <c r="C184" t="n">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>188</v>
+      </c>
+      <c r="C184">
         <v>5</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>3</v>
       </c>
-      <c r="E184" t="n">
+      <c r="E184">
         <v>7</v>
       </c>
-      <c r="F184" t="n">
+      <c r="F184">
         <v>5</v>
       </c>
-      <c r="G184" t="n">
+      <c r="G184">
         <v>20</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>Saudi Arabia</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>189</v>
+      </c>
+      <c r="B185">
         <v>5625</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>6267</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>8502</v>
       </c>
-      <c r="E185" t="n">
+      <c r="E185">
         <v>11237</v>
       </c>
-      <c r="F185" t="n">
+      <c r="F185">
         <v>13797</v>
       </c>
-      <c r="G185" t="n">
+      <c r="G185">
         <v>45428</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>190</v>
+      </c>
+      <c r="B186">
         <v>300</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>314</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>339</v>
       </c>
-      <c r="E186" t="n">
+      <c r="E186">
         <v>388</v>
       </c>
-      <c r="F186" t="n">
+      <c r="F186">
         <v>376</v>
       </c>
-      <c r="G186" t="n">
+      <c r="G186">
         <v>1717</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>191</v>
+      </c>
+      <c r="B187">
         <v>2003</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>2227</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>2161</v>
       </c>
-      <c r="E187" t="n">
+      <c r="E187">
         <v>2579</v>
       </c>
-      <c r="F187" t="n">
+      <c r="F187">
         <v>2593</v>
       </c>
-      <c r="G187" t="n">
+      <c r="G187">
         <v>11563</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Seychelles</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>192</v>
+      </c>
+      <c r="B188">
         <v>16</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>18</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>29</v>
       </c>
-      <c r="E188" t="n">
+      <c r="E188">
         <v>29</v>
       </c>
-      <c r="F188" t="n">
+      <c r="F188">
         <v>25</v>
       </c>
-      <c r="G188" t="n">
+      <c r="G188">
         <v>117</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Sierra Leone</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>193</v>
+      </c>
+      <c r="B189">
         <v>101</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>113</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>123</v>
       </c>
-      <c r="E189" t="n">
+      <c r="E189">
         <v>192</v>
       </c>
-      <c r="F189" t="n">
+      <c r="F189">
         <v>189</v>
       </c>
-      <c r="G189" t="n">
+      <c r="G189">
         <v>718</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Singapore</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>194</v>
+      </c>
+      <c r="B190">
         <v>4838</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>5300</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>6200</v>
       </c>
-      <c r="E190" t="n">
+      <c r="E190">
         <v>6891</v>
       </c>
-      <c r="F190" t="n">
+      <c r="F190">
         <v>7127</v>
       </c>
-      <c r="G190" t="n">
+      <c r="G190">
         <v>30356</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>195</v>
+      </c>
+      <c r="B191">
         <v>1450</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>1546</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>1798</v>
       </c>
-      <c r="E191" t="n">
+      <c r="E191">
         <v>1896</v>
       </c>
-      <c r="F191" t="n">
+      <c r="F191">
         <v>1805</v>
       </c>
-      <c r="G191" t="n">
+      <c r="G191">
         <v>8495</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>196</v>
+      </c>
+      <c r="B192">
         <v>1405</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>1467</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>1733</v>
       </c>
-      <c r="E192" t="n">
+      <c r="E192">
         <v>2106</v>
       </c>
-      <c r="F192" t="n">
+      <c r="F192">
         <v>2112</v>
       </c>
-      <c r="G192" t="n">
+      <c r="G192">
         <v>8823</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Solomon Islands</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>197</v>
+      </c>
+      <c r="B193">
         <v>30</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>18</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>32</v>
       </c>
-      <c r="E193" t="n">
+      <c r="E193">
         <v>29</v>
       </c>
-      <c r="F193" t="n">
+      <c r="F193">
         <v>15</v>
       </c>
-      <c r="G193" t="n">
+      <c r="G193">
         <v>124</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Somalia</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>198</v>
+      </c>
+      <c r="B194">
         <v>15</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>32</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>59</v>
       </c>
-      <c r="E194" t="n">
+      <c r="E194">
         <v>81</v>
       </c>
-      <c r="F194" t="n">
+      <c r="F194">
         <v>197</v>
       </c>
-      <c r="G194" t="n">
+      <c r="G194">
         <v>384</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>199</v>
+      </c>
+      <c r="B195">
         <v>6132</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>6602</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>7540</v>
       </c>
-      <c r="E195" t="n">
+      <c r="E195">
         <v>8400</v>
       </c>
-      <c r="F195" t="n">
+      <c r="F195">
         <v>8724</v>
       </c>
-      <c r="G195" t="n">
+      <c r="G195">
         <v>37398</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>South Georgia and the South Sandwich Islands</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>200</v>
+      </c>
+      <c r="B196">
         <v>1</v>
       </c>
-      <c r="C196" t="inlineStr"/>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>1</v>
       </c>
-      <c r="E196" t="n">
+      <c r="E196">
         <v>1</v>
       </c>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="n">
+      <c r="G196">
         <v>3</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>201</v>
+      </c>
+      <c r="B197">
         <v>24168</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>24818</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>26921</v>
       </c>
-      <c r="E197" t="n">
+      <c r="E197">
         <v>30311</v>
       </c>
-      <c r="F197" t="n">
+      <c r="F197">
         <v>29505</v>
       </c>
-      <c r="G197" t="n">
+      <c r="G197">
         <v>135723</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>202</v>
+      </c>
+      <c r="B198">
         <v>26328</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>27865</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>31958</v>
       </c>
-      <c r="E198" t="n">
+      <c r="E198">
         <v>36734</v>
       </c>
-      <c r="F198" t="n">
+      <c r="F198">
         <v>35878</v>
       </c>
-      <c r="G198" t="n">
+      <c r="G198">
         <v>158763</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Sri Lanka</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>203</v>
+      </c>
+      <c r="B199">
         <v>670</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>768</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>831</v>
       </c>
-      <c r="E199" t="n">
+      <c r="E199">
         <v>957</v>
       </c>
-      <c r="F199" t="n">
+      <c r="F199">
         <v>1067</v>
       </c>
-      <c r="G199" t="n">
+      <c r="G199">
         <v>4293</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Sudan</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>204</v>
+      </c>
+      <c r="B200">
         <v>311</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>361</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>465</v>
       </c>
-      <c r="E200" t="n">
+      <c r="E200">
         <v>624</v>
       </c>
-      <c r="F200" t="n">
+      <c r="F200">
         <v>723</v>
       </c>
-      <c r="G200" t="n">
+      <c r="G200">
         <v>2484</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Suriname</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>205</v>
+      </c>
+      <c r="B201">
         <v>38</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>25</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>28</v>
       </c>
-      <c r="E201" t="n">
+      <c r="E201">
         <v>33</v>
       </c>
-      <c r="F201" t="n">
+      <c r="F201">
         <v>19</v>
       </c>
-      <c r="G201" t="n">
+      <c r="G201">
         <v>143</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Svalbard and Jan Mayen</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr"/>
-      <c r="C202" t="n">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>206</v>
+      </c>
+      <c r="C202">
         <v>1</v>
       </c>
-      <c r="D202" t="inlineStr"/>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="n">
+      <c r="G202">
         <v>1</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Swaziland</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>207</v>
+      </c>
+      <c r="B203">
         <v>59</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>56</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>63</v>
       </c>
-      <c r="E203" t="n">
+      <c r="E203">
         <v>53</v>
       </c>
-      <c r="F203" t="n">
+      <c r="F203">
         <v>81</v>
       </c>
-      <c r="G203" t="n">
+      <c r="G203">
         <v>312</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>208</v>
+      </c>
+      <c r="B204">
         <v>13417</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>14007</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>15079</v>
       </c>
-      <c r="E204" t="n">
+      <c r="E204">
         <v>16657</v>
       </c>
-      <c r="F204" t="n">
+      <c r="F204">
         <v>16423</v>
       </c>
-      <c r="G204" t="n">
+      <c r="G204">
         <v>75583</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>209</v>
+      </c>
+      <c r="B205">
         <v>15810</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>16517</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>18366</v>
       </c>
-      <c r="E205" t="n">
+      <c r="E205">
         <v>20873</v>
       </c>
-      <c r="F205" t="n">
+      <c r="F205">
         <v>20317</v>
       </c>
-      <c r="G205" t="n">
+      <c r="G205">
         <v>91883</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Syrian Arab Republic</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>210</v>
+      </c>
+      <c r="B206">
         <v>179</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>180</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>238</v>
       </c>
-      <c r="E206" t="n">
+      <c r="E206">
         <v>362</v>
       </c>
-      <c r="F206" t="n">
+      <c r="F206">
         <v>520</v>
       </c>
-      <c r="G206" t="n">
+      <c r="G206">
         <v>1479</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Taiwan</t>
-        </is>
-      </c>
-      <c r="B207" t="n">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>211</v>
+      </c>
+      <c r="B207">
         <v>9110</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>10150</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>10922</v>
       </c>
-      <c r="E207" t="n">
+      <c r="E207">
         <v>12844</v>
       </c>
-      <c r="F207" t="n">
+      <c r="F207">
         <v>14257</v>
       </c>
-      <c r="G207" t="n">
+      <c r="G207">
         <v>57283</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Tajikistan</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>212</v>
+      </c>
+      <c r="B208">
         <v>35</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>48</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>41</v>
       </c>
-      <c r="E208" t="n">
+      <c r="E208">
         <v>67</v>
       </c>
-      <c r="F208" t="n">
+      <c r="F208">
         <v>43</v>
       </c>
-      <c r="G208" t="n">
+      <c r="G208">
         <v>234</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Tanzania</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>213</v>
+      </c>
+      <c r="B209">
         <v>774</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>907</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>1058</v>
       </c>
-      <c r="E209" t="n">
+      <c r="E209">
         <v>1194</v>
       </c>
-      <c r="F209" t="n">
+      <c r="F209">
         <v>1216</v>
       </c>
-      <c r="G209" t="n">
+      <c r="G209">
         <v>5149</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>214</v>
+      </c>
+      <c r="B210">
         <v>5053</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>5190</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>6120</v>
       </c>
-      <c r="E210" t="n">
+      <c r="E210">
         <v>7227</v>
       </c>
-      <c r="F210" t="n">
+      <c r="F210">
         <v>7858</v>
       </c>
-      <c r="G210" t="n">
+      <c r="G210">
         <v>31448</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Timor-Leste</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>215</v>
+      </c>
+      <c r="B211">
         <v>19</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>18</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>27</v>
       </c>
-      <c r="E211" t="n">
+      <c r="E211">
         <v>15</v>
       </c>
-      <c r="F211" t="n">
+      <c r="F211">
         <v>19</v>
       </c>
-      <c r="G211" t="n">
+      <c r="G211">
         <v>98</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Togo</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>216</v>
+      </c>
+      <c r="B212">
         <v>102</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>105</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>77</v>
       </c>
-      <c r="E212" t="n">
+      <c r="E212">
         <v>110</v>
       </c>
-      <c r="F212" t="n">
+      <c r="F212">
         <v>115</v>
       </c>
-      <c r="G212" t="n">
+      <c r="G212">
         <v>509</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Tonga</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>217</v>
+      </c>
+      <c r="B213">
         <v>5</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>5</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>10</v>
       </c>
-      <c r="E213" t="n">
+      <c r="E213">
         <v>7</v>
       </c>
-      <c r="F213" t="n">
+      <c r="F213">
         <v>10</v>
       </c>
-      <c r="G213" t="n">
+      <c r="G213">
         <v>37</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Trinidad and Tobago</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>218</v>
+      </c>
+      <c r="B214">
         <v>135</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>152</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>154</v>
       </c>
-      <c r="E214" t="n">
+      <c r="E214">
         <v>174</v>
       </c>
-      <c r="F214" t="n">
+      <c r="F214">
         <v>166</v>
       </c>
-      <c r="G214" t="n">
+      <c r="G214">
         <v>781</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Tunisia</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>219</v>
+      </c>
+      <c r="B215">
         <v>1605</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>1622</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>1751</v>
       </c>
-      <c r="E215" t="n">
+      <c r="E215">
         <v>1998</v>
       </c>
-      <c r="F215" t="n">
+      <c r="F215">
         <v>2262</v>
       </c>
-      <c r="G215" t="n">
+      <c r="G215">
         <v>9238</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>220</v>
+      </c>
+      <c r="B216">
         <v>14579</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>16087</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>18787</v>
       </c>
-      <c r="E216" t="n">
+      <c r="E216">
         <v>22989</v>
       </c>
-      <c r="F216" t="n">
+      <c r="F216">
         <v>24487</v>
       </c>
-      <c r="G216" t="n">
+      <c r="G216">
         <v>96929</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>Turkmenistan</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>221</v>
+      </c>
+      <c r="B217">
         <v>1</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>3</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>1</v>
       </c>
-      <c r="E217" t="n">
+      <c r="E217">
         <v>14</v>
       </c>
-      <c r="F217" t="n">
+      <c r="F217">
         <v>2</v>
       </c>
-      <c r="G217" t="n">
+      <c r="G217">
         <v>21</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>Turks and Caicos Islands</t>
-        </is>
-      </c>
-      <c r="B218" t="n">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>222</v>
+      </c>
+      <c r="B218">
         <v>2</v>
       </c>
-      <c r="C218" t="inlineStr"/>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>1</v>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="n">
+      <c r="F218">
         <v>3</v>
       </c>
-      <c r="G218" t="n">
+      <c r="G218">
         <v>6</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>Tuvalu</t>
-        </is>
-      </c>
-      <c r="B219" t="n">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>223</v>
+      </c>
+      <c r="B219">
         <v>1</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>1</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="n">
+      <c r="F219">
         <v>2</v>
       </c>
-      <c r="G219" t="n">
+      <c r="G219">
         <v>4</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>Uganda</t>
-        </is>
-      </c>
-      <c r="B220" t="n">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>224</v>
+      </c>
+      <c r="B220">
         <v>998</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>1114</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>1240</v>
       </c>
-      <c r="E220" t="n">
+      <c r="E220">
         <v>1643</v>
       </c>
-      <c r="F220" t="n">
+      <c r="F220">
         <v>1661</v>
       </c>
-      <c r="G220" t="n">
+      <c r="G220">
         <v>6656</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="B221" t="n">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>225</v>
+      </c>
+      <c r="B221">
         <v>1565</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>2315</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>2755</v>
       </c>
-      <c r="E221" t="n">
+      <c r="E221">
         <v>3402</v>
       </c>
-      <c r="F221" t="n">
+      <c r="F221">
         <v>3104</v>
       </c>
-      <c r="G221" t="n">
+      <c r="G221">
         <v>13141</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="B222" t="n">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>226</v>
+      </c>
+      <c r="B222">
         <v>1317</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>1488</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>1977</v>
       </c>
-      <c r="E222" t="n">
+      <c r="E222">
         <v>2780</v>
       </c>
-      <c r="F222" t="n">
+      <c r="F222">
         <v>3367</v>
       </c>
-      <c r="G222" t="n">
+      <c r="G222">
         <v>10929</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="B223" t="n">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>227</v>
+      </c>
+      <c r="B223">
         <v>58087</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>60189</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>65609</v>
       </c>
-      <c r="E223" t="n">
+      <c r="E223">
         <v>74608</v>
       </c>
-      <c r="F223" t="n">
+      <c r="F223">
         <v>72384</v>
       </c>
-      <c r="G223" t="n">
+      <c r="G223">
         <v>330877</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B224" t="n">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>228</v>
+      </c>
+      <c r="B224">
         <v>212663</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>215723</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>231390</v>
       </c>
-      <c r="E224" t="n">
+      <c r="E224">
         <v>252115</v>
       </c>
-      <c r="F224" t="n">
+      <c r="F224">
         <v>244371</v>
       </c>
-      <c r="G224" t="n">
+      <c r="G224">
         <v>1156262</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>United States Minor Outlying Islands</t>
-        </is>
-      </c>
-      <c r="B225" t="n">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>229</v>
+      </c>
+      <c r="B225">
         <v>0</v>
       </c>
-      <c r="C225" t="inlineStr"/>
-      <c r="D225" t="inlineStr"/>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="n">
+      <c r="G225">
         <v>0</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="B226" t="n">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>230</v>
+      </c>
+      <c r="B226">
         <v>504</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>465</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>546</v>
       </c>
-      <c r="E226" t="n">
+      <c r="E226">
         <v>688</v>
       </c>
-      <c r="F226" t="n">
+      <c r="F226">
         <v>610</v>
       </c>
-      <c r="G226" t="n">
+      <c r="G226">
         <v>2813</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>Uzbekistan</t>
-        </is>
-      </c>
-      <c r="B227" t="n">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>231</v>
+      </c>
+      <c r="B227">
         <v>63</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>88</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>295</v>
       </c>
-      <c r="E227" t="n">
+      <c r="E227">
         <v>516</v>
       </c>
-      <c r="F227" t="n">
+      <c r="F227">
         <v>324</v>
       </c>
-      <c r="G227" t="n">
+      <c r="G227">
         <v>1286</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>Vanuatu</t>
-        </is>
-      </c>
-      <c r="B228" t="n">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>232</v>
+      </c>
+      <c r="B228">
         <v>7</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>14</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>10</v>
       </c>
-      <c r="E228" t="n">
+      <c r="E228">
         <v>19</v>
       </c>
-      <c r="F228" t="n">
+      <c r="F228">
         <v>22</v>
       </c>
-      <c r="G228" t="n">
+      <c r="G228">
         <v>72</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>Vatican City State</t>
-        </is>
-      </c>
-      <c r="B229" t="n">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>233</v>
+      </c>
+      <c r="B229">
         <v>1</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>2</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>1</v>
       </c>
-      <c r="E229" t="n">
+      <c r="E229">
         <v>2</v>
       </c>
-      <c r="F229" t="n">
+      <c r="F229">
         <v>3</v>
       </c>
-      <c r="G229" t="n">
+      <c r="G229">
         <v>9</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Venezuela</t>
-        </is>
-      </c>
-      <c r="B230" t="n">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>234</v>
+      </c>
+      <c r="B230">
         <v>462</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>583</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>463</v>
       </c>
-      <c r="E230" t="n">
+      <c r="E230">
         <v>571</v>
       </c>
-      <c r="F230" t="n">
+      <c r="F230">
         <v>430</v>
       </c>
-      <c r="G230" t="n">
+      <c r="G230">
         <v>2509</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Viet Nam</t>
-        </is>
-      </c>
-      <c r="B231" t="n">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>235</v>
+      </c>
+      <c r="B231">
         <v>1312</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>1790</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>2218</v>
       </c>
-      <c r="E231" t="n">
+      <c r="E231">
         <v>2794</v>
       </c>
-      <c r="F231" t="n">
+      <c r="F231">
         <v>2638</v>
       </c>
-      <c r="G231" t="n">
+      <c r="G231">
         <v>10752</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>Virgin Islands (British)</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr"/>
-      <c r="C232" t="n">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>236</v>
+      </c>
+      <c r="C232">
         <v>1</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>1</v>
       </c>
-      <c r="E232" t="n">
+      <c r="E232">
         <v>2</v>
       </c>
-      <c r="F232" t="n">
+      <c r="F232">
         <v>1</v>
       </c>
-      <c r="G232" t="n">
+      <c r="G232">
         <v>5</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Virgin Islands (U.S.)</t>
-        </is>
-      </c>
-      <c r="B233" t="n">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>237</v>
+      </c>
+      <c r="B233">
         <v>5</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>3</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>2</v>
       </c>
-      <c r="E233" t="n">
+      <c r="E233">
         <v>4</v>
       </c>
-      <c r="F233" t="n">
+      <c r="F233">
         <v>6</v>
       </c>
-      <c r="G233" t="n">
+      <c r="G233">
         <v>20</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Wallis and Futuna</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr"/>
-      <c r="C234" t="n">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>238</v>
+      </c>
+      <c r="C234">
         <v>1</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>2</v>
       </c>
-      <c r="E234" t="n">
+      <c r="E234">
         <v>0</v>
       </c>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="n">
+      <c r="G234">
         <v>3</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>Western Sahara</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr"/>
-      <c r="C235" t="inlineStr"/>
-      <c r="D235" t="inlineStr"/>
-      <c r="E235" t="n">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>239</v>
+      </c>
+      <c r="E235">
         <v>1</v>
       </c>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="n">
+      <c r="G235">
         <v>1</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>Yemen</t>
-        </is>
-      </c>
-      <c r="B236" t="n">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>240</v>
+      </c>
+      <c r="B236">
         <v>139</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>192</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>179</v>
       </c>
-      <c r="E236" t="n">
+      <c r="E236">
         <v>269</v>
       </c>
-      <c r="F236" t="n">
+      <c r="F236">
         <v>389</v>
       </c>
-      <c r="G236" t="n">
+      <c r="G236">
         <v>1168</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>Zambia</t>
-        </is>
-      </c>
-      <c r="B237" t="n">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>241</v>
+      </c>
+      <c r="B237">
         <v>316</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>334</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>449</v>
       </c>
-      <c r="E237" t="n">
+      <c r="E237">
         <v>520</v>
       </c>
-      <c r="F237" t="n">
+      <c r="F237">
         <v>583</v>
       </c>
-      <c r="G237" t="n">
+      <c r="G237">
         <v>2202</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="B238" t="n">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>242</v>
+      </c>
+      <c r="B238">
         <v>309</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>363</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>423</v>
       </c>
-      <c r="E238" t="n">
+      <c r="E238">
         <v>521</v>
       </c>
-      <c r="F238" t="n">
+      <c r="F238">
         <v>517</v>
       </c>
-      <c r="G238" t="n">
+      <c r="G238">
         <v>2133</v>
       </c>
     </row>
